--- a/Assets/Demo/Res/localize.xlsx
+++ b/Assets/Demo/Res/localize.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wusongtao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\proj\unity\FBSDK_Unity\Assets\Demo\Res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E4AA39-FF5B-4FB7-8472-65876A77405E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1AE187-E326-469B-865A-33A85E16D90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{68D96789-0ED1-4C4F-B460-67FE1F76A131}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68D96789-0ED1-4C4F-B460-67FE1F76A131}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="message_en" sheetId="2" r:id="rId2"/>
+    <sheet name="message_en" sheetId="5" r:id="rId2"/>
     <sheet name="message_zh_cn" sheetId="3" r:id="rId3"/>
     <sheet name="message_zh_tw" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="409">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,1175 +96,1369 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>为保证您的数据安全，请尽快绑定账号，以免刷机等原因导致数据丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎進入遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為保證您的資料安全，請儘快綁定帳號，以免刷機等原因導致資料丟失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_second_to_retry</t>
+  </si>
+  <si>
+    <t>秒后重试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒後重試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接 受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒 绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒 絕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支 付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please_input_mobile_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please_input_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登 录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他登录方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other_login_methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please_input_username/email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入用户名/Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>———————————    其他登陆方式    ———————————</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—————————    Other Login Methods    —————————</t>
+  </si>
+  <si>
+    <t>no_account?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有账户?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forget_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please_input_username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_verify_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请确认密码</t>
+  </si>
+  <si>
+    <t>please_confirm_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Please Input Username/Email</t>
+  </si>
+  <si>
+    <t>請輸入手機號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登 錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號登錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他登錄方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入用戶名/Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>———————————    其他登陸方式    ———————————</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有帳戶?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘記密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入用戶名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入驗證碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獲取驗證碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請確認密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other_login_methods_line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations! You Has been successfully upgraded to an official account!</t>
+  </si>
+  <si>
+    <t>error_mobile_number_empty</t>
+  </si>
+  <si>
+    <t>error_validate_code_empty</t>
+  </si>
+  <si>
+    <t>error_password_not_equal</t>
+  </si>
+  <si>
+    <t>msg_reset_success</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Please Input Message</t>
+  </si>
+  <si>
+    <t>Confirm Submit</t>
+  </si>
+  <si>
+    <t>Submit Success!</t>
+  </si>
+  <si>
+    <t>請輸入手機號碼，並獲取驗證碼</t>
+  </si>
+  <si>
+    <t>請正確輸入驗證碼</t>
+  </si>
+  <si>
+    <t>兩次密碼不相同</t>
+  </si>
+  <si>
+    <t>密碼重置成功</t>
+  </si>
+  <si>
+    <t>好的</t>
+  </si>
+  <si>
+    <t>恭喜你！已經成功升級為正式帳號!</t>
+  </si>
+  <si>
+    <t>抱歉，該設備暫時無法使用快速遊戲功能，請註冊後登陸。</t>
+  </si>
+  <si>
+    <t>請輸入內容。</t>
+  </si>
+  <si>
+    <t>確認提交。</t>
+  </si>
+  <si>
+    <t>發送成功！</t>
+  </si>
+  <si>
+    <t>發送失敗，請重試</t>
+  </si>
+  <si>
+    <t>请输入手机号码，并获取验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请正确输入验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码重置成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你！已经成功升级为正式账号!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉，该设备暂时无法使用快速游戏功能，请注册后登陆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认提交。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败，请重试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit Failed. Please Retry.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Platform ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please input your question or suggestion…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶設置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服回饋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊客升級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出遊戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平臺 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入您遇到的问题或建议…...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入您遇到的問題或建議…...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tourist Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切換帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palestinian Territory</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vietnam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>孟加拉国</t>
+  </si>
+  <si>
+    <t>不丹</t>
+  </si>
+  <si>
+    <t>文莱</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>澳大利亚圣诞岛</t>
+  </si>
+  <si>
+    <t>科科斯（基林）群岛</t>
+  </si>
+  <si>
+    <t>塞浦路斯</t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
+    <t>中国香港特别行政区</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>朝鲜</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>中国澳门特别行政区</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>马尔代夫</t>
+  </si>
+  <si>
+    <t>蒙古</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>阿曼</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>巴勒斯坦</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>中国台湾</t>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>也门</t>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please input username and password！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入用户名和密码！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_mobile_number_empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_validate_code_empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前为游客账号，切换账号可能导致账号丢失，依然要切换吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入用戶名和密碼！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當前為遊客帳號，切換帳號可能導致帳號丟失，依然要切換嗎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞美尼亞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞塞拜然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟加拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汶萊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳大利亞聖誕島</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科科斯（基林）群島</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格魯吉亞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中國香港特別行政區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈薩克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝鮮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉爾吉斯斯坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老撾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中國澳門特別行政區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬來西亞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬爾地夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緬甸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼泊爾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲律賓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙烏地阿拉伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘利亞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中國臺灣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東帝汶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土庫曼斯坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿拉伯聯合大公國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏茲別克斯坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to</t>
+  </si>
+  <si>
+    <t>我偏要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No!No!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不了不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm switching account?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认切换账号吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you sure to quit the game? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定退出游戏嘛？</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再玩一会儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯裡蘭卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認切換帳號嗎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確定退出遊戲嘛？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再玩一會兒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currently for the Tourist account，switching accounts may result in account loss，still have to switch?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry，the device is temporarily unable to use the quick login feature，please log in after register.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan， Province of China</t>
+  </si>
+  <si>
+    <t>Send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发 送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure to quit the game?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發 送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please_input_validate_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入激活码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入啟動碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确的激活码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activation code has been used</t>
+  </si>
+  <si>
+    <t>激活码已被使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the correct activation code</t>
+  </si>
+  <si>
+    <t>Please input activation code</t>
+  </si>
+  <si>
+    <t>Please input activation code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啟動成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入正確的啟動碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啟動碼已被使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activation succeeded</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>welcome_back_tip</t>
+  </si>
+  <si>
+    <t>Welcome !</t>
+  </si>
+  <si>
+    <t>quick_login_tip</t>
+  </si>
+  <si>
     <t>In order to ensure the security of your data, please bind your account as soon as possible to avoid data loss.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
   </si>
   <si>
     <t>Cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quick_login</t>
   </si>
   <si>
     <t>Quick Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为保证您的数据安全，请尽快绑定账号，以免刷机等原因导致数据丢失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歡迎進入遊戲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>為保證您的資料安全，請儘快綁定帳號，以免刷機等原因導致資料丟失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速遊戲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x_second_to_retry</t>
   </si>
   <si>
     <t>s to Retry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒后重试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒後重試</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>accept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Accept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>reject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接 受</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拒 绝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拒 絕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支 付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pay</t>
   </si>
   <si>
     <t>please_input_mobile_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please Input Mobile Number</t>
   </si>
   <si>
     <t>please_input_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please Input Password</t>
   </si>
   <si>
     <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>account_login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登 录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account Login</t>
   </si>
   <si>
     <t>register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他登录方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>other_login_methods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other Login Methods</t>
   </si>
   <si>
     <t>please_input_username/email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入用户名/Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>———————————    其他登陆方式    ———————————</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>—————————    Other Login Methods    —————————</t>
+  </si>
+  <si>
+    <t>other_login_methods_line</t>
   </si>
   <si>
     <t>no_account?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有账户?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Account?</t>
   </si>
   <si>
     <t>register_account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register Account</t>
   </si>
   <si>
     <t>forget_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forget Password?</t>
   </si>
   <si>
     <t>please_input_username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please Input Username</t>
+  </si>
+  <si>
+    <t>please_input_validate_code</t>
+  </si>
+  <si>
+    <t>Please Input Validate Code</t>
   </si>
   <si>
     <t>get_verify_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Code</t>
+  </si>
+  <si>
+    <t>next</t>
   </si>
   <si>
     <t>Next</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>next</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请确认密码</t>
   </si>
   <si>
     <t>please_confirm_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please Confirm Password</t>
   </si>
   <si>
     <t>reset_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置密码</t>
-  </si>
-  <si>
-    <t>Pay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>Please Input Mobile Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please Input Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please Input Username/Email</t>
-  </si>
-  <si>
-    <t>Account Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other Login Methods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Account?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forget Password?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please Input Username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please Confirm Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入手機號碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登 錄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳號登錄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>註冊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他登錄方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入用戶名/Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>———————————    其他登陸方式    ———————————</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沒有帳戶?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>註冊帳號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘記密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入用戶名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入驗證碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獲取驗證碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請確認密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other_login_methods_line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulations! You Has been successfully upgraded to an official account!</t>
-  </si>
-  <si>
-    <t>error_mobile_number_empty</t>
-  </si>
-  <si>
-    <t>error_validate_code_empty</t>
-  </si>
-  <si>
-    <t>error_password_not_equal</t>
-  </si>
-  <si>
-    <t>msg_reset_success</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Please Input Message</t>
-  </si>
-  <si>
-    <t>Confirm Submit</t>
-  </si>
-  <si>
-    <t>Submit Success!</t>
-  </si>
-  <si>
-    <t>請輸入手機號碼，並獲取驗證碼</t>
-  </si>
-  <si>
-    <t>請正確輸入驗證碼</t>
-  </si>
-  <si>
-    <t>兩次密碼不相同</t>
-  </si>
-  <si>
-    <t>密碼重置成功</t>
-  </si>
-  <si>
-    <t>好的</t>
-  </si>
-  <si>
-    <t>恭喜你！已經成功升級為正式帳號!</t>
-  </si>
-  <si>
-    <t>抱歉，該設備暫時無法使用快速遊戲功能，請註冊後登陸。</t>
-  </si>
-  <si>
-    <t>請輸入內容。</t>
-  </si>
-  <si>
-    <t>確認提交。</t>
-  </si>
-  <si>
-    <t>發送成功！</t>
-  </si>
-  <si>
-    <t>發送失敗，請重試</t>
-  </si>
-  <si>
-    <t>请输入手机号码，并获取验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请正确输入验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两次密码不相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码重置成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜你！已经成功升级为正式账号!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱歉，该设备暂时无法使用快速游戏功能，请注册后登陆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认提交。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送成功！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送失败，请重试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset Password</t>
   </si>
   <si>
     <t>Please input mobile number and get validate code.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Please input the correct validate code.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Please confirm password is same.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Reset password success.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please input username and password！</t>
+  </si>
+  <si>
+    <t>Currently for the Tourist account，switching accounts may result in account loss，still have to switch?</t>
   </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry，the device is temporarily unable to use the quick login feature，please log in after register.</t>
   </si>
   <si>
     <t>Submit Failed. Please Retry.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Center</t>
   </si>
   <si>
     <t>User Setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Feedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游客升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User Center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tourist Upgrade</t>
   </si>
   <si>
     <t>Quit Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Platform ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Please input your question or suggestion…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用戶中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用戶設置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服回饋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊客升級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出遊戲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平臺 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入您遇到的问题或建议…...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入您遇到的問題或建議…...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tourist Upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Switch Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切換帳號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Cocos (Keeling) Islands</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Macao</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palestinian Territory</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
   </si>
   <si>
     <t>Afghanistan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Armenia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Azerbaijan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bahrain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bangladesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bhutan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Yemen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vietnam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>澳大利亚圣诞岛</t>
-  </si>
-  <si>
-    <t>科科斯（基林）群岛</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>中国香港特别行政区</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>中国澳门特别行政区</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>阿拉伯联合酋长国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>国家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please input username and password！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请输入用户名和密码！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error_mobile_number_empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error_validate_code_empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前为游客账号，切换账号可能导致账号丢失，依然要切换吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>請輸入用戶名和密碼！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>當前為遊客帳號，切換帳號可能導致帳號丟失，依然要切換嗎？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>國家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亞美尼亞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亞塞拜然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟加拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汶萊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中國</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>澳大利亞聖誕島</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科科斯（基林）群島</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格魯吉亞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中國香港特別行政區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>約旦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈薩克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝鮮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韓國</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉爾吉斯斯坦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老撾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中國澳門特別行政區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>馬來西亞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>馬爾地夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>緬甸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼泊爾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菲律賓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡達</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙烏地阿拉伯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敘利亞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中國臺灣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰國</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>東帝汶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土庫曼斯坦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿拉伯聯合大公國</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烏茲別克斯坦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>葉門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I want to</t>
-  </si>
-  <si>
-    <t>我偏要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>No!No!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不了不了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Confirm switching account?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认切换账号吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Are you sure to quit the game? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定退出游戏嘛？</t>
   </si>
   <si>
     <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Not now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再玩一会儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯裡蘭卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認切換帳號嗎？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確定退出遊戲嘛？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再玩一會兒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Currently for the Tourist account，switching accounts may result in account loss，still have to switch?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sorry，the device is temporarily unable to use the quick login feature，please log in after register.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taiwan， Province of China</t>
   </si>
   <si>
     <t>Send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发 送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Register Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reset Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are you sure to quit the game?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發 送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please Input Validate Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>please_input_validate_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1691,673 +1885,692 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD03A67-A19B-4F89-B488-C4E4A011549E}">
-  <dimension ref="A1:B109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366B5EC5-7942-4444-99F0-5B54F9DD14D7}">
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>354</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>356</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>358</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>362</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>364</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="B23" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>368</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>370</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>372</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>374</v>
       </c>
       <c r="B27" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>269</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>209</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>210</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>213</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>312</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>314</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>330</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39947906-DDE0-4C2E-B307-71C44DA6F3AD}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2395,7 +2608,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2403,7 +2616,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2411,831 +2624,863 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="B94" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B100" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B102" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="B105" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B106" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B108" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B109" t="s">
-        <v>331</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>322</v>
+      </c>
+      <c r="B110" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>326</v>
+      </c>
+      <c r="B111" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>320</v>
+      </c>
+      <c r="B112" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3247,10 +3492,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6BA963-2B65-4518-8D4F-8014EC1EC200}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3280,7 +3525,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3288,7 +3533,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3296,7 +3541,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3304,831 +3549,863 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B64" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B71" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B77" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B84" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="B94" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B102" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="B105" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="B106" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B108" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B109" t="s">
-        <v>335</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>322</v>
+      </c>
+      <c r="B110" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>326</v>
+      </c>
+      <c r="B111" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>320</v>
+      </c>
+      <c r="B112" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
